--- a/data/sell_list.xlsx
+++ b/data/sell_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -28,25 +28,22 @@
     <t>Code</t>
   </si>
   <si>
+    <t>Order_type</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Order_type</t>
-  </si>
-  <si>
-    <t>Tr</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>21:33:06</t>
-  </si>
-  <si>
-    <t>21:33:07</t>
-  </si>
-  <si>
-    <t>21:46:50</t>
+    <t>20200522</t>
+  </si>
+  <si>
+    <t>21:57:34</t>
   </si>
   <si>
     <t>한국정보통신</t>
@@ -70,7 +67,7 @@
     <t>mkt</t>
   </si>
   <si>
-    <t>done</t>
+    <t>yet</t>
   </si>
 </sst>
 </file>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,159 +458,81 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2">
-        <v>20200522</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>1870</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
+      <c r="G2">
+        <v>10950</v>
       </c>
       <c r="H2">
-        <v>10950</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
-        <v>20200522</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="G3">
+        <v>336000</v>
       </c>
       <c r="H3">
-        <v>336000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4">
-        <v>20200522</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4">
-        <v>295</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
+      <c r="G4">
+        <v>48750</v>
       </c>
       <c r="H4">
-        <v>48750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>20200522</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>1870</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <v>10950</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>20200522</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>336000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>20200522</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
         <v>295</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>48750</v>
       </c>
     </row>
   </sheetData>

--- a/data/sell_list.xlsx
+++ b/data/sell_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -40,34 +40,151 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>20200522</t>
-  </si>
-  <si>
-    <t>21:57:34</t>
-  </si>
-  <si>
-    <t>한국정보통신</t>
-  </si>
-  <si>
-    <t>삼성SDI</t>
-  </si>
-  <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
-    <t>025770</t>
-  </si>
-  <si>
-    <t>006400</t>
-  </si>
-  <si>
-    <t>005930</t>
+    <t>10:25:39</t>
+  </si>
+  <si>
+    <t>10:26:37</t>
+  </si>
+  <si>
+    <t>10:27:38</t>
+  </si>
+  <si>
+    <t>10:29:53</t>
+  </si>
+  <si>
+    <t>10:30:53</t>
+  </si>
+  <si>
+    <t>10:31:52</t>
+  </si>
+  <si>
+    <t>10:32:53</t>
+  </si>
+  <si>
+    <t>10:33:53</t>
+  </si>
+  <si>
+    <t>10:34:52</t>
+  </si>
+  <si>
+    <t>10:35:53</t>
+  </si>
+  <si>
+    <t>11:23:47</t>
+  </si>
+  <si>
+    <t>11:24:56</t>
+  </si>
+  <si>
+    <t>ARIRANG 중형주저변동50</t>
+  </si>
+  <si>
+    <t>아세아시멘트</t>
+  </si>
+  <si>
+    <t>호전실업</t>
+  </si>
+  <si>
+    <t>KBSTAR 200중공업</t>
+  </si>
+  <si>
+    <t>TIGER 로우볼</t>
+  </si>
+  <si>
+    <t>SK디앤디</t>
+  </si>
+  <si>
+    <t>TIGER 코스피대형주</t>
+  </si>
+  <si>
+    <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>대성홀딩스</t>
+  </si>
+  <si>
+    <t>카카오</t>
+  </si>
+  <si>
+    <t>TIGER 배당성장</t>
+  </si>
+  <si>
+    <t>KBSTAR 중국MSCI China선물(H)</t>
+  </si>
+  <si>
+    <t>KINDEX 스마트퀄리티</t>
+  </si>
+  <si>
+    <t>삼성바이오로직스</t>
+  </si>
+  <si>
+    <t>미원상사</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>KB금융</t>
+  </si>
+  <si>
+    <t>266550</t>
+  </si>
+  <si>
+    <t>183190</t>
+  </si>
+  <si>
+    <t>111110</t>
+  </si>
+  <si>
+    <t>285010</t>
+  </si>
+  <si>
+    <t>174350</t>
+  </si>
+  <si>
+    <t>210980</t>
+  </si>
+  <si>
+    <t>277640</t>
+  </si>
+  <si>
+    <t>086790</t>
+  </si>
+  <si>
+    <t>016710</t>
+  </si>
+  <si>
+    <t>035720</t>
+  </si>
+  <si>
+    <t>211560</t>
+  </si>
+  <si>
+    <t>310080</t>
+  </si>
+  <si>
+    <t>322120</t>
+  </si>
+  <si>
+    <t>207940</t>
+  </si>
+  <si>
+    <t>002840</t>
+  </si>
+  <si>
+    <t>005380</t>
+  </si>
+  <si>
+    <t>105560</t>
   </si>
   <si>
     <t>mkt</t>
   </si>
   <si>
-    <t>yet</t>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -425,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,81 +575,1459 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>20200528</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>8215</v>
+      </c>
+      <c r="H2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>20200528</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <v>62900</v>
+      </c>
+      <c r="H3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>20200528</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>10850</v>
+      </c>
+      <c r="H4">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>20200528</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5">
+        <v>6660</v>
+      </c>
+      <c r="H5">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>20200528</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>9275</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>20200528</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>6660</v>
+      </c>
+      <c r="H7">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>20200528</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>8215</v>
+      </c>
+      <c r="H8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>20200528</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>62900</v>
+      </c>
+      <c r="H9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>20200528</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>24950</v>
+      </c>
+      <c r="H10">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>20200528</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11">
+        <v>9985</v>
+      </c>
+      <c r="H11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>20200528</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <v>28300</v>
+      </c>
+      <c r="H12">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>20200528</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13">
+        <v>11200</v>
+      </c>
+      <c r="H13">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>20200528</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14">
+        <v>260000</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>20200528</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>13090</v>
+      </c>
+      <c r="H15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>20200528</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>9985</v>
+      </c>
+      <c r="H16">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>20200528</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>10570</v>
+      </c>
+      <c r="H17">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>20200528</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>13090</v>
+      </c>
+      <c r="H18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>20200528</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>6660</v>
+      </c>
+      <c r="H19">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>20200528</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <v>9990</v>
+      </c>
+      <c r="H20">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20200528</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21">
+        <v>8215</v>
+      </c>
+      <c r="H21">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20200528</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22">
+        <v>8215</v>
+      </c>
+      <c r="H22">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>20200528</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23">
+        <v>9990</v>
+      </c>
+      <c r="H23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>20200528</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24">
+        <v>6660</v>
+      </c>
+      <c r="H24">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>20200528</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25">
+        <v>10570</v>
+      </c>
+      <c r="H25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>20200528</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>12820</v>
+      </c>
+      <c r="H26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>20200528</v>
+      </c>
+      <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>13090</v>
+      </c>
+      <c r="H27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>20200528</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28">
+        <v>8215</v>
+      </c>
+      <c r="H28">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>20200528</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29">
+        <v>6660</v>
+      </c>
+      <c r="H29">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>20200528</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30">
+        <v>10570</v>
+      </c>
+      <c r="H30">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>20200528</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31">
+        <v>12820</v>
+      </c>
+      <c r="H31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>20200528</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32">
+        <v>24900</v>
+      </c>
+      <c r="H32">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>20200528</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33">
+        <v>8215</v>
+      </c>
+      <c r="H33">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>20200528</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34">
+        <v>6660</v>
+      </c>
+      <c r="H34">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>20200528</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35">
+        <v>12820</v>
+      </c>
+      <c r="H35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>20200528</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36">
+        <v>10570</v>
+      </c>
+      <c r="H36">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>20200528</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37">
+        <v>12820</v>
+      </c>
+      <c r="H37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>20200528</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38">
+        <v>6660</v>
+      </c>
+      <c r="H38">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>20200528</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39">
+        <v>616000</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>20200528</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40">
+        <v>10570</v>
+      </c>
+      <c r="H40">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>20200528</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41">
+        <v>13090</v>
+      </c>
+      <c r="H41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>20200528</v>
+      </c>
+      <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42">
+        <v>10570</v>
+      </c>
+      <c r="H42">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>20200528</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43">
+        <v>24900</v>
+      </c>
+      <c r="H43">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>20200528</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44">
+        <v>12820</v>
+      </c>
+      <c r="H44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>20200528</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45">
+        <v>6660</v>
+      </c>
+      <c r="H45">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>20200528</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46">
+        <v>13090</v>
+      </c>
+      <c r="H46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>20200528</v>
+      </c>
+      <c r="B47" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>10950</v>
-      </c>
-      <c r="H2">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47">
+        <v>10570</v>
+      </c>
+      <c r="H47">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>20200528</v>
+      </c>
+      <c r="B48" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>336000</v>
-      </c>
-      <c r="H3">
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48">
+        <v>24900</v>
+      </c>
+      <c r="H48">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>20200528</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49">
+        <v>8195</v>
+      </c>
+      <c r="H49">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>20200528</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50">
+        <v>13090</v>
+      </c>
+      <c r="H50">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>20200528</v>
+      </c>
+      <c r="B51" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
-        <v>48750</v>
-      </c>
-      <c r="H4">
-        <v>295</v>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51">
+        <v>12820</v>
+      </c>
+      <c r="H51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>20200528</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52">
+        <v>70900</v>
+      </c>
+      <c r="H52">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>20200528</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53">
+        <v>13090</v>
+      </c>
+      <c r="H53">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>20200528</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54">
+        <v>10800</v>
+      </c>
+      <c r="H54">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>20200528</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55">
+        <v>98200</v>
+      </c>
+      <c r="H55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>20200528</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56">
+        <v>34800</v>
+      </c>
+      <c r="H56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>20200528</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <v>70900</v>
+      </c>
+      <c r="H57">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/sell_list.xlsx
+++ b/data/sell_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -40,142 +40,226 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>10:25:39</t>
-  </si>
-  <si>
-    <t>10:26:37</t>
-  </si>
-  <si>
-    <t>10:27:38</t>
-  </si>
-  <si>
-    <t>10:29:53</t>
-  </si>
-  <si>
-    <t>10:30:53</t>
-  </si>
-  <si>
-    <t>10:31:52</t>
-  </si>
-  <si>
-    <t>10:32:53</t>
-  </si>
-  <si>
-    <t>10:33:53</t>
-  </si>
-  <si>
-    <t>10:34:52</t>
-  </si>
-  <si>
-    <t>10:35:53</t>
-  </si>
-  <si>
-    <t>11:23:47</t>
-  </si>
-  <si>
-    <t>11:24:56</t>
+    <t>11:36:19</t>
+  </si>
+  <si>
+    <t>11:36:49</t>
+  </si>
+  <si>
+    <t>11:40:45</t>
+  </si>
+  <si>
+    <t>11:43:45</t>
+  </si>
+  <si>
+    <t>11:46:45</t>
+  </si>
+  <si>
+    <t>11:49:45</t>
+  </si>
+  <si>
+    <t>11:52:45</t>
+  </si>
+  <si>
+    <t>11:55:45</t>
+  </si>
+  <si>
+    <t>11:58:45</t>
+  </si>
+  <si>
+    <t>12:01:45</t>
+  </si>
+  <si>
+    <t>12:04:45</t>
+  </si>
+  <si>
+    <t>12:07:45</t>
+  </si>
+  <si>
+    <t>12:10:59</t>
+  </si>
+  <si>
+    <t>12:13:46</t>
+  </si>
+  <si>
+    <t>12:16:45</t>
+  </si>
+  <si>
+    <t>12:19:45</t>
+  </si>
+  <si>
+    <t>13:01:29</t>
+  </si>
+  <si>
+    <t>13:02:42</t>
+  </si>
+  <si>
+    <t>13:05:42</t>
+  </si>
+  <si>
+    <t>16:50:27</t>
+  </si>
+  <si>
+    <t>18:30:32</t>
+  </si>
+  <si>
+    <t>18:46:08</t>
+  </si>
+  <si>
+    <t>18:48:30</t>
+  </si>
+  <si>
+    <t>18:48:31</t>
+  </si>
+  <si>
+    <t>18:49:05</t>
+  </si>
+  <si>
+    <t>18:53:53</t>
   </si>
   <si>
     <t>ARIRANG 중형주저변동50</t>
   </si>
   <si>
-    <t>아세아시멘트</t>
-  </si>
-  <si>
     <t>호전실업</t>
   </si>
   <si>
+    <t>미원상사</t>
+  </si>
+  <si>
+    <t>SK이노베이션</t>
+  </si>
+  <si>
     <t>KBSTAR 200중공업</t>
   </si>
   <si>
-    <t>TIGER 로우볼</t>
-  </si>
-  <si>
-    <t>SK디앤디</t>
-  </si>
-  <si>
-    <t>TIGER 코스피대형주</t>
-  </si>
-  <si>
-    <t>하나금융지주</t>
-  </si>
-  <si>
-    <t>대성홀딩스</t>
+    <t>CJ제일제당</t>
+  </si>
+  <si>
+    <t>KINDEX 스마트퀄리티</t>
+  </si>
+  <si>
+    <t>KODEX 레버리지</t>
+  </si>
+  <si>
+    <t>삼성바이오로직스</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>삼성에스디에스</t>
+  </si>
+  <si>
+    <t>TIGER 배당성장</t>
+  </si>
+  <si>
+    <t>삼성SDI</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
+    <t>KB금융</t>
+  </si>
+  <si>
+    <t>NAVER</t>
+  </si>
+  <si>
+    <t>엔씨소프트</t>
   </si>
   <si>
     <t>카카오</t>
   </si>
   <si>
-    <t>TIGER 배당성장</t>
-  </si>
-  <si>
-    <t>KBSTAR 중국MSCI China선물(H)</t>
-  </si>
-  <si>
-    <t>KINDEX 스마트퀄리티</t>
-  </si>
-  <si>
-    <t>삼성바이오로직스</t>
-  </si>
-  <si>
-    <t>미원상사</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>KB금융</t>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
   </si>
   <si>
     <t>266550</t>
   </si>
   <si>
-    <t>183190</t>
-  </si>
-  <si>
     <t>111110</t>
   </si>
   <si>
+    <t>002840</t>
+  </si>
+  <si>
+    <t>096770</t>
+  </si>
+  <si>
     <t>285010</t>
   </si>
   <si>
-    <t>174350</t>
-  </si>
-  <si>
-    <t>210980</t>
-  </si>
-  <si>
-    <t>277640</t>
-  </si>
-  <si>
-    <t>086790</t>
-  </si>
-  <si>
-    <t>016710</t>
+    <t>097950</t>
+  </si>
+  <si>
+    <t>322120</t>
+  </si>
+  <si>
+    <t>122630</t>
+  </si>
+  <si>
+    <t>207940</t>
+  </si>
+  <si>
+    <t>005380</t>
+  </si>
+  <si>
+    <t>018260</t>
+  </si>
+  <si>
+    <t>211560</t>
+  </si>
+  <si>
+    <t>006400</t>
+  </si>
+  <si>
+    <t>090430</t>
+  </si>
+  <si>
+    <t>078930</t>
+  </si>
+  <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>105560</t>
+  </si>
+  <si>
+    <t>035420</t>
+  </si>
+  <si>
+    <t>036570</t>
   </si>
   <si>
     <t>035720</t>
   </si>
   <si>
-    <t>211560</t>
-  </si>
-  <si>
-    <t>310080</t>
-  </si>
-  <si>
-    <t>322120</t>
-  </si>
-  <si>
-    <t>207940</t>
-  </si>
-  <si>
-    <t>002840</t>
-  </si>
-  <si>
-    <t>005380</t>
-  </si>
-  <si>
-    <t>105560</t>
+    <t>017670</t>
+  </si>
+  <si>
+    <t>003550</t>
+  </si>
+  <si>
+    <t>034730</t>
+  </si>
+  <si>
+    <t>005930</t>
   </si>
   <si>
     <t>mkt</t>
@@ -542,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,22 +666,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G2">
-        <v>8215</v>
+        <v>8205</v>
       </c>
       <c r="H2">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -608,22 +692,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G3">
-        <v>62900</v>
+        <v>10800</v>
       </c>
       <c r="H3">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -634,22 +718,22 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G4">
-        <v>10850</v>
+        <v>70900</v>
       </c>
       <c r="H4">
-        <v>893</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -657,25 +741,25 @@
         <v>20200528</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5">
+        <v>121000</v>
+      </c>
+      <c r="H5">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5">
-        <v>6660</v>
-      </c>
-      <c r="H5">
-        <v>939</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -683,25 +767,25 @@
         <v>20200528</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G6">
-        <v>9275</v>
+        <v>6665</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -712,22 +796,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G7">
-        <v>6660</v>
+        <v>70900</v>
       </c>
       <c r="H7">
-        <v>939</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -735,25 +819,25 @@
         <v>20200528</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G8">
-        <v>8215</v>
+        <v>70800</v>
       </c>
       <c r="H8">
-        <v>272</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -761,25 +845,25 @@
         <v>20200528</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G9">
-        <v>62900</v>
+        <v>8205</v>
       </c>
       <c r="H9">
-        <v>161</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -787,25 +871,25 @@
         <v>20200528</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G10">
-        <v>24950</v>
+        <v>300000</v>
       </c>
       <c r="H10">
-        <v>383</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -813,25 +897,25 @@
         <v>20200528</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G11">
-        <v>9985</v>
+        <v>12820</v>
       </c>
       <c r="H11">
-        <v>288</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -839,25 +923,25 @@
         <v>20200528</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G12">
-        <v>28300</v>
+        <v>6665</v>
       </c>
       <c r="H12">
-        <v>369</v>
+        <v>938</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -865,25 +949,25 @@
         <v>20200528</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G13">
-        <v>11200</v>
+        <v>70800</v>
       </c>
       <c r="H13">
-        <v>913</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -891,25 +975,25 @@
         <v>20200528</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G14">
-        <v>260000</v>
+        <v>11340</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -917,25 +1001,25 @@
         <v>20200528</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G15">
-        <v>13090</v>
+        <v>615000</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -943,25 +1027,25 @@
         <v>20200528</v>
       </c>
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16">
+        <v>98200</v>
+      </c>
+      <c r="H16">
         <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16">
-        <v>9985</v>
-      </c>
-      <c r="H16">
-        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -969,25 +1053,25 @@
         <v>20200528</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G17">
-        <v>10570</v>
+        <v>187000</v>
       </c>
       <c r="H17">
-        <v>275</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -995,19 +1079,19 @@
         <v>20200528</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G18">
         <v>13090</v>
@@ -1021,25 +1105,25 @@
         <v>20200528</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G19">
-        <v>6660</v>
+        <v>360500</v>
       </c>
       <c r="H19">
-        <v>939</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1047,25 +1131,25 @@
         <v>20200528</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G20">
-        <v>9990</v>
+        <v>8195</v>
       </c>
       <c r="H20">
-        <v>288</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1073,25 +1157,25 @@
         <v>20200528</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G21">
-        <v>8215</v>
+        <v>168500</v>
       </c>
       <c r="H21">
-        <v>272</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1099,25 +1183,25 @@
         <v>20200528</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G22">
-        <v>8215</v>
+        <v>39250</v>
       </c>
       <c r="H22">
-        <v>272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1125,25 +1209,25 @@
         <v>20200528</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G23">
-        <v>9990</v>
+        <v>10850</v>
       </c>
       <c r="H23">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1151,25 +1235,25 @@
         <v>20200528</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G24">
-        <v>6660</v>
+        <v>8195</v>
       </c>
       <c r="H24">
-        <v>939</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1177,25 +1261,25 @@
         <v>20200528</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25">
+        <v>12820</v>
+      </c>
+      <c r="H25">
         <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25">
-        <v>10570</v>
-      </c>
-      <c r="H25">
-        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1203,25 +1287,25 @@
         <v>20200528</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G26">
-        <v>12820</v>
+        <v>98100</v>
       </c>
       <c r="H26">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1229,25 +1313,25 @@
         <v>20200528</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G27">
-        <v>13090</v>
+        <v>13085</v>
       </c>
       <c r="H27">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1255,25 +1339,25 @@
         <v>20200528</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G28">
-        <v>8215</v>
+        <v>70800</v>
       </c>
       <c r="H28">
-        <v>272</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1281,25 +1365,25 @@
         <v>20200528</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G29">
-        <v>6660</v>
+        <v>84000</v>
       </c>
       <c r="H29">
-        <v>939</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1307,25 +1391,25 @@
         <v>20200528</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30">
+        <v>12820</v>
+      </c>
+      <c r="H30">
         <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30">
-        <v>10570</v>
-      </c>
-      <c r="H30">
-        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1333,25 +1417,25 @@
         <v>20200528</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G31">
-        <v>12820</v>
+        <v>34700</v>
       </c>
       <c r="H31">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1359,25 +1443,25 @@
         <v>20200528</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G32">
-        <v>24900</v>
+        <v>6665</v>
       </c>
       <c r="H32">
-        <v>214</v>
+        <v>938</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1385,25 +1469,25 @@
         <v>20200528</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G33">
-        <v>8215</v>
+        <v>11285</v>
       </c>
       <c r="H33">
-        <v>272</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1411,25 +1495,25 @@
         <v>20200528</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G34">
-        <v>6660</v>
+        <v>39250</v>
       </c>
       <c r="H34">
-        <v>939</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1437,25 +1521,25 @@
         <v>20200528</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G35">
-        <v>12820</v>
+        <v>231500</v>
       </c>
       <c r="H35">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1463,25 +1547,25 @@
         <v>20200528</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G36">
-        <v>10570</v>
+        <v>781000</v>
       </c>
       <c r="H36">
-        <v>275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1489,25 +1573,25 @@
         <v>20200528</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G37">
-        <v>12820</v>
+        <v>260500</v>
       </c>
       <c r="H37">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1515,25 +1599,25 @@
         <v>20200528</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G38">
-        <v>6660</v>
+        <v>34650</v>
       </c>
       <c r="H38">
-        <v>939</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1541,25 +1625,25 @@
         <v>20200528</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G39">
-        <v>616000</v>
+        <v>8195</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1567,25 +1651,25 @@
         <v>20200528</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G40">
-        <v>10570</v>
+        <v>211000</v>
       </c>
       <c r="H40">
-        <v>275</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1593,25 +1677,25 @@
         <v>20200528</v>
       </c>
       <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41">
+        <v>64800</v>
+      </c>
+      <c r="H41">
         <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41">
-        <v>13090</v>
-      </c>
-      <c r="H41">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1619,25 +1703,25 @@
         <v>20200528</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G42">
-        <v>10570</v>
+        <v>8195</v>
       </c>
       <c r="H42">
-        <v>275</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1645,25 +1729,25 @@
         <v>20200528</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G43">
-        <v>24900</v>
+        <v>39250</v>
       </c>
       <c r="H43">
-        <v>142</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1671,25 +1755,25 @@
         <v>20200528</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G44">
-        <v>12820</v>
+        <v>613000</v>
       </c>
       <c r="H44">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1697,25 +1781,25 @@
         <v>20200528</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G45">
-        <v>6660</v>
+        <v>64700</v>
       </c>
       <c r="H45">
-        <v>939</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1723,25 +1807,25 @@
         <v>20200528</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G46">
-        <v>13090</v>
+        <v>357000</v>
       </c>
       <c r="H46">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1749,25 +1833,25 @@
         <v>20200528</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G47">
-        <v>10570</v>
+        <v>250500</v>
       </c>
       <c r="H47">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1775,25 +1859,25 @@
         <v>20200528</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G48">
-        <v>24900</v>
+        <v>50500</v>
       </c>
       <c r="H48">
-        <v>142</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1801,25 +1885,25 @@
         <v>20200528</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G49">
-        <v>8195</v>
+        <v>11265</v>
       </c>
       <c r="H49">
-        <v>268</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1827,25 +1911,25 @@
         <v>20200528</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G50">
-        <v>13090</v>
+        <v>64500</v>
       </c>
       <c r="H50">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1853,25 +1937,25 @@
         <v>20200528</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G51">
-        <v>12820</v>
+        <v>259500</v>
       </c>
       <c r="H51">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1879,25 +1963,25 @@
         <v>20200528</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G52">
-        <v>70900</v>
+        <v>606000</v>
       </c>
       <c r="H52">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1905,25 +1989,25 @@
         <v>20200528</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G53">
-        <v>13090</v>
+        <v>34100</v>
       </c>
       <c r="H53">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1931,25 +2015,25 @@
         <v>20200528</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G54">
-        <v>10800</v>
+        <v>780000</v>
       </c>
       <c r="H54">
-        <v>217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1957,25 +2041,25 @@
         <v>20200528</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G55">
-        <v>98200</v>
+        <v>8120</v>
       </c>
       <c r="H55">
-        <v>20</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1983,22 +2067,22 @@
         <v>20200528</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G56">
-        <v>34800</v>
+        <v>34150</v>
       </c>
       <c r="H56">
         <v>29</v>
@@ -2009,25 +2093,623 @@
         <v>20200528</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F57" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57">
+        <v>8120</v>
+      </c>
+      <c r="H57">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>20200528</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58">
+        <v>354000</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>20200528</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59">
+        <v>12715</v>
+      </c>
+      <c r="H59">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>20200528</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60">
+        <v>39000</v>
+      </c>
+      <c r="H60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>20200528</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
         <v>56</v>
       </c>
-      <c r="G57">
-        <v>70900</v>
-      </c>
-      <c r="H57">
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61">
+        <v>244500</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>20200528</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62">
+        <v>12715</v>
+      </c>
+      <c r="H62">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>20200528</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63">
+        <v>83900</v>
+      </c>
+      <c r="H63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>20200528</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64">
+        <v>187000</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>20200528</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65">
+        <v>187000</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>20200528</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66">
+        <v>244500</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>20200528</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" t="s">
         <v>71</v>
+      </c>
+      <c r="E67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67">
+        <v>166500</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>20200528</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68">
+        <v>12715</v>
+      </c>
+      <c r="H68">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>20200528</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69">
+        <v>187000</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>20200528</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70">
+        <v>244500</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>20200528</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" t="s">
+        <v>84</v>
+      </c>
+      <c r="G71">
+        <v>166500</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>20200528</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" t="s">
+        <v>84</v>
+      </c>
+      <c r="G72">
+        <v>12715</v>
+      </c>
+      <c r="H72">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>20200528</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" t="s">
+        <v>84</v>
+      </c>
+      <c r="G73">
+        <v>187000</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>20200528</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74">
+        <v>244500</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>20200528</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75">
+        <v>166500</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>20200528</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76">
+        <v>12715</v>
+      </c>
+      <c r="H76">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>20200528</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77">
+        <v>187000</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>20200528</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78">
+        <v>244500</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>20200528</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79">
+        <v>166500</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>20200528</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G80">
+        <v>12715</v>
+      </c>
+      <c r="H80">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
